--- a/Astra Notes.xlsx
+++ b/Astra Notes.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gwen\Documents\GitHub\Factorio-Astra-Asteroids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47FA7CE8-86F8-4FEB-9C07-921223C8CDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1B01BB-EB90-4DD7-A8A0-F9DD222D0B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="600" windowWidth="37380" windowHeight="17850" activeTab="2" xr2:uid="{19A80CD4-A61D-4139-863E-8E630E8C5493}"/>
+    <workbookView xWindow="15165" yWindow="0" windowWidth="23235" windowHeight="21000" activeTab="3" xr2:uid="{19A80CD4-A61D-4139-863E-8E630E8C5493}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Asteroids (chunks, chunk items)" sheetId="2" r:id="rId2"/>
     <sheet name="Recipies" sheetId="3" r:id="rId3"/>
+    <sheet name="ItemListGen" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -37,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="206">
   <si>
     <t>Metallic</t>
   </si>
@@ -49,9 +72,6 @@
     <t>Oxide</t>
   </si>
   <si>
-    <t>Nauvis</t>
-  </si>
-  <si>
     <t>Vulcanis</t>
   </si>
   <si>
@@ -64,48 +84,9 @@
     <t>Aquilo</t>
   </si>
   <si>
-    <t>Crude</t>
-  </si>
-  <si>
-    <t>Iron Ore</t>
-  </si>
-  <si>
-    <t>Carbon</t>
-  </si>
-  <si>
-    <t>Sulfer</t>
-  </si>
-  <si>
-    <t>Ice</t>
-  </si>
-  <si>
-    <t>Calcite</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Uranium Ore</t>
-  </si>
-  <si>
-    <t>Tungsten Ore</t>
-  </si>
-  <si>
-    <t>Scrap</t>
-  </si>
-  <si>
-    <t>Yumako Seed</t>
-  </si>
-  <si>
-    <t>Jellynut Seed</t>
-  </si>
-  <si>
     <t>Dormant Pentapod Egg</t>
   </si>
   <si>
-    <t>Copper Ore</t>
-  </si>
-  <si>
     <t>(tbd) ammonia</t>
   </si>
   <si>
@@ -121,18 +102,12 @@
     <t>(tbd) promethium</t>
   </si>
   <si>
-    <t>Spoilage</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>Oil Thing</t>
   </si>
   <si>
-    <t>Coal</t>
-  </si>
-  <si>
     <t>Carbonic, Adv</t>
   </si>
   <si>
@@ -175,15 +150,6 @@
     <t>Aquilo, Special</t>
   </si>
   <si>
-    <t>Uranium 238</t>
-  </si>
-  <si>
-    <t>Uranium 235</t>
-  </si>
-  <si>
-    <t>Lava</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -268,21 +234,12 @@
     <t>"nauvis_asteroid_chunk_item"</t>
   </si>
   <si>
-    <t>localised_name</t>
-  </si>
-  <si>
     <t>enabled</t>
   </si>
   <si>
-    <t>ingredients</t>
-  </si>
-  <si>
     <t>"nauvis_asteroid_chunk_crushing"</t>
   </si>
   <si>
-    <t>{ "recipe-name.nauvis_asteroid_chunk_crushing" }</t>
-  </si>
-  <si>
     <t>"__Astra-Asteroids__/graphics/nauvis-asteroid-chunk-crushing.png"</t>
   </si>
   <si>
@@ -319,9 +276,6 @@
     <t>"nauvis_asteroid_chunk_crushing_adv"</t>
   </si>
   <si>
-    <t>{ "recipe-name.nauvis_asteroid_chunk_crushing_adv" }</t>
-  </si>
-  <si>
     <t>{ type = "item", name = "stone", amount_min = 4, amount_max = 8 }</t>
   </si>
   <si>
@@ -331,9 +285,6 @@
     <t>"crude_asteroid_chunk_crushing"</t>
   </si>
   <si>
-    <t>{ "recipe-name.crude_asteroid_chunk_crushing" }</t>
-  </si>
-  <si>
     <t>"__Astra-Asteroids__/graphics/crude-asteroid-chunk-crushing.png"</t>
   </si>
   <si>
@@ -413,13 +364,328 @@
   </si>
   <si>
     <t>{ type = "item", name = "spoilage",  amount_min = 0, amount_max = 4 }</t>
+  </si>
+  <si>
+    <t>Ingredient 1</t>
+  </si>
+  <si>
+    <t>Ingredient 2</t>
+  </si>
+  <si>
+    <t>Special Vulcanic Crushing</t>
+  </si>
+  <si>
+    <t>"vulcanus_special_crushing"</t>
+  </si>
+  <si>
+    <t>metallic-astroid-chunk</t>
+  </si>
+  <si>
+    <t>{mining_time = 0.2, result = "Sunrise_Sasparillaroid_Chunk_Item"}</t>
+  </si>
+  <si>
+    <t>Ingredient String</t>
+  </si>
+  <si>
+    <t>Ingredient 1 Amount</t>
+  </si>
+  <si>
+    <t>Ingredient 2 Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = </t>
+  </si>
+  <si>
+    <t>uranium-ore</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>iron-ore</t>
+  </si>
+  <si>
+    <t>copper-ore</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>sulfur</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>calcite</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>uranium-238</t>
+  </si>
+  <si>
+    <t>uranium-235</t>
+  </si>
+  <si>
+    <t>tungsten-ore</t>
+  </si>
+  <si>
+    <t>lava</t>
+  </si>
+  <si>
+    <t>scrap</t>
+  </si>
+  <si>
+    <t>yumako-seed</t>
+  </si>
+  <si>
+    <t>jellynut-seed</t>
+  </si>
+  <si>
+    <t>spoilage</t>
+  </si>
+  <si>
+    <t>solid-fuel</t>
+  </si>
+  <si>
+    <t>Volcanic Asteroid</t>
+  </si>
+  <si>
+    <t>"__Astra-Asteroids__/graphics/volcanic-asteroid-chunk.png"</t>
+  </si>
+  <si>
+    <t>"volcanic_asteroid_chunk"</t>
+  </si>
+  <si>
+    <t>"volcanic_asteroid_chunk_item"</t>
+  </si>
+  <si>
+    <t>{mining_time = 0.2, result = "volcanic_asteroid_chunk_item"}</t>
+  </si>
+  <si>
+    <t>"v"</t>
+  </si>
+  <si>
+    <t>Result_1_amt_min</t>
+  </si>
+  <si>
+    <t>Result_2_amt_min</t>
+  </si>
+  <si>
+    <t>Result_3_amt_min</t>
+  </si>
+  <si>
+    <t>Result_4_amt_min</t>
+  </si>
+  <si>
+    <t>Result_1_amt_max</t>
+  </si>
+  <si>
+    <t>Result_2_amt_max</t>
+  </si>
+  <si>
+    <t>Result_3_amt_max</t>
+  </si>
+  <si>
+    <t>Result_4_amt_max</t>
+  </si>
+  <si>
+    <t>Result_1_P</t>
+  </si>
+  <si>
+    <t>Result_2_P</t>
+  </si>
+  <si>
+    <t>Result_3_P</t>
+  </si>
+  <si>
+    <t>Result_4_P</t>
+  </si>
+  <si>
+    <t>Result_1_name</t>
+  </si>
+  <si>
+    <t>Result_2_name</t>
+  </si>
+  <si>
+    <t>Result_3_name</t>
+  </si>
+  <si>
+    <t>Result_4_name</t>
+  </si>
+  <si>
+    <t>uranium_ore</t>
+  </si>
+  <si>
+    <t>Carbonic asteroid crushing</t>
+  </si>
+  <si>
+    <t>Metallic asteroid crushing</t>
+  </si>
+  <si>
+    <t>Oxide asteroid crushing</t>
+  </si>
+  <si>
+    <t>Advanced metallic asteroid crushing</t>
+  </si>
+  <si>
+    <t>Advanced carbonic asteroid crushing</t>
+  </si>
+  <si>
+    <t>Advanced oxide asteroid crushing</t>
+  </si>
+  <si>
+    <t>"metallic-asteroid-crushing"</t>
+  </si>
+  <si>
+    <t>"carbonic-asteroid-crushing"</t>
+  </si>
+  <si>
+    <t>"oxide-asteroid-crushing"</t>
+  </si>
+  <si>
+    <t>"advanced-metallic-asteroid-crushing"</t>
+  </si>
+  <si>
+    <t>"advanced-carbonic-asteroid-crushing"</t>
+  </si>
+  <si>
+    <t>"advanced-oxide-asteroid-crushing"</t>
+  </si>
+  <si>
+    <t>"__space-age__\graphics\icons\advanced-metallic-asteroid-crushing.png"</t>
+  </si>
+  <si>
+    <t>"__space-age__\graphics\icons\advanced-carbonic-asteroid-crushing.png"</t>
+  </si>
+  <si>
+    <t>"__space-age__\graphics\icons\advanced-oxide-asteroid-crushing.png"</t>
+  </si>
+  <si>
+    <t>"__space-age__\graphics\icons\carbonic-asteroid-crushing.png"</t>
+  </si>
+  <si>
+    <t>"__space-age__\graphics\icons\metallic-asteroid-crushing.png"</t>
+  </si>
+  <si>
+    <t>"__space-age__\graphics\icons\oxide-asteroid-crushing.png"</t>
+  </si>
+  <si>
+    <t>carbonic-asteroid-chunk</t>
+  </si>
+  <si>
+    <t>oxide-asteroid-chunk</t>
+  </si>
+  <si>
+    <t>metallic-asteroid-chunk</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>{name="space-platform-foundation"</t>
+  </si>
+  <si>
+    <t>type="item"</t>
+  </si>
+  <si>
+    <t>amount = 500}</t>
+  </si>
+  <si>
+    <t>{name="solar-panel"</t>
+  </si>
+  <si>
+    <t>amount = 20}</t>
+  </si>
+  <si>
+    <t>{name="astra-simple-crusher"</t>
+  </si>
+  <si>
+    <t>amount = 4}</t>
+  </si>
+  <si>
+    <t>{name="astra-simple-asteroid-collector"</t>
+  </si>
+  <si>
+    <t>amount = 6}</t>
+  </si>
+  <si>
+    <t>{name="inserter"</t>
+  </si>
+  <si>
+    <t>{name="electric-furnace"</t>
+  </si>
+  <si>
+    <t>amount = 8}</t>
+  </si>
+  <si>
+    <t>{name="assembling-machine-1"</t>
+  </si>
+  <si>
+    <t>amount = 2}</t>
+  </si>
+  <si>
+    <t>{name="iron-plate"</t>
+  </si>
+  <si>
+    <t>amount = 50}</t>
+  </si>
+  <si>
+    <t>{name="efficiency-module-2"</t>
+  </si>
+  <si>
+    <t>{name="transport-belt"</t>
+  </si>
+  <si>
+    <t>amount = 40}</t>
+  </si>
+  <si>
+    <t>remnant.initial_items = {</t>
+  </si>
+  <si>
+    <t>"space-platform-foundation"</t>
+  </si>
+  <si>
+    <t>"solar-panel"</t>
+  </si>
+  <si>
+    <t>"astra-simple-crusher"</t>
+  </si>
+  <si>
+    <t>"astra-simple-asteroid-collector"</t>
+  </si>
+  <si>
+    <t>"inserter"</t>
+  </si>
+  <si>
+    <t>"electric-furnace"</t>
+  </si>
+  <si>
+    <t>"assembling-machine-1"</t>
+  </si>
+  <si>
+    <t>"iron-plate"</t>
+  </si>
+  <si>
+    <t>"efficiency-module-2"</t>
+  </si>
+  <si>
+    <t>"transport-belt"</t>
+  </si>
+  <si>
+    <t>line items</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,6 +717,17 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -472,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -492,12 +769,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="65">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <fgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -506,16 +803,11 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
+      <fill>
+        <patternFill patternType="lightDown">
+          <fgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -524,6 +816,87 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -533,76 +906,92 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -621,57 +1010,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9A0BFF85-5E25-44F5-989C-05E81AFBA27C}" name="Table4" displayName="Table4" ref="B3:Z24" totalsRowShown="0" headerRowDxfId="32">
-  <autoFilter ref="B3:Z24" xr:uid="{9A0BFF85-5E25-44F5-989C-05E81AFBA27C}"/>
-  <tableColumns count="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9A0BFF85-5E25-44F5-989C-05E81AFBA27C}" name="Table4" displayName="Table4" ref="B3:AB25" totalsRowShown="0" headerRowDxfId="64">
+  <autoFilter ref="B3:AB25" xr:uid="{9A0BFF85-5E25-44F5-989C-05E81AFBA27C}"/>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{B1A354A2-D591-4F7C-89E1-AB75527E5993}" name="Recipe"/>
-    <tableColumn id="2" xr3:uid="{7F80CA45-0C9C-4D9D-A37C-6DF3AD5E0BEB}" name="Iron Ore" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{AC60A2AA-9D82-482D-A597-78045793B05D}" name="Copper Ore" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{5029DD94-2977-4B99-94DB-19EA67D75D22}" name="Carbon" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{52F010C3-27DB-43E9-A9D6-11A1C5DB092F}" name="Sulfer" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{F06F185C-FC3F-465E-B9E4-758205B9F0F4}" name="Ice" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{1554F3DE-DB8B-471F-922A-8D30297584F3}" name="Calcite" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{E7F322CB-036A-403C-8BF8-6B20B8C6CCD1}" name="Oil Thing" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{F529E26B-0253-4C02-95D8-95DB987CD83E}" name="Coal" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{D18F88A9-729A-4165-BA55-675D11D2231A}" name="Stone" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{57DAEF24-F8A7-492C-9706-2674BFBB49E1}" name="Uranium Ore" dataDxfId="22"/>
-    <tableColumn id="23" xr3:uid="{688FF19F-43DB-4F57-B5C7-CB20C171B5A5}" name="Uranium 238" dataDxfId="10"/>
-    <tableColumn id="24" xr3:uid="{8B59E641-D762-475E-BE04-0AD557DA2633}" name="Uranium 235" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{49325880-AB22-406C-9EBF-F9714278E54F}" name="Tungsten Ore" dataDxfId="21"/>
-    <tableColumn id="25" xr3:uid="{4B574229-0587-4E11-816D-60F689340097}" name="Lava" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{876F7B27-7476-478B-9F55-220BB73A33D4}" name="Scrap" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{1D9F494D-4B80-42A5-85C3-6484CB3803F7}" name="Yumako Seed" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{CC0EBC6A-4432-4CBA-A41B-E7B6031BD83F}" name="Jellynut Seed" dataDxfId="18"/>
-    <tableColumn id="16" xr3:uid="{2B7FB235-2E10-4FA1-BC7C-964E7947466A}" name="Spoilage" dataDxfId="17"/>
-    <tableColumn id="17" xr3:uid="{CEE0F52B-14B0-48FB-AD2F-A1A1A9DACF76}" name="Dormant Pentapod Egg" dataDxfId="16"/>
-    <tableColumn id="18" xr3:uid="{F34385CF-1935-4968-8261-48F21ADB2D44}" name="(tbd) ammonia" dataDxfId="15"/>
-    <tableColumn id="19" xr3:uid="{405DEB99-0752-4FA5-BCC3-09F744698489}" name="(tbd) flourine" dataDxfId="14"/>
-    <tableColumn id="20" xr3:uid="{ADD7E20E-3FB5-4185-8AD9-7781DF09236F}" name="(tbd) lithium" dataDxfId="13"/>
-    <tableColumn id="21" xr3:uid="{82818854-DC1B-485E-9809-F8B0261BEDE0}" name="(tbd) promethium" dataDxfId="12"/>
-    <tableColumn id="22" xr3:uid="{5634330F-FEBB-4799-90EC-922642138192}" name="Holmium Solution" dataDxfId="11"/>
+    <tableColumn id="27" xr3:uid="{1411294A-B7C7-4726-B55B-8DABEE6ED457}" name="energy_required" dataDxfId="63">
+      <calculatedColumnFormula>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{7F80CA45-0C9C-4D9D-A37C-6DF3AD5E0BEB}" name="iron-ore" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{AC60A2AA-9D82-482D-A597-78045793B05D}" name="copper-ore" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{5029DD94-2977-4B99-94DB-19EA67D75D22}" name="carbon" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{52F010C3-27DB-43E9-A9D6-11A1C5DB092F}" name="sulfur" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{F06F185C-FC3F-465E-B9E4-758205B9F0F4}" name="ice" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{1554F3DE-DB8B-471F-922A-8D30297584F3}" name="calcite" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{E7F322CB-036A-403C-8BF8-6B20B8C6CCD1}" name="Oil Thing" dataDxfId="56">
+      <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" xr3:uid="{C4622E41-2D57-42C3-A31B-EF19C158ACB5}" name="solid-fuel" dataDxfId="55">
+      <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{F529E26B-0253-4C02-95D8-95DB987CD83E}" name="coal" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{D18F88A9-729A-4165-BA55-675D11D2231A}" name="stone" dataDxfId="53"/>
+    <tableColumn id="11" xr3:uid="{57DAEF24-F8A7-492C-9706-2674BFBB49E1}" name="uranium-ore" dataDxfId="52">
+      <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{688FF19F-43DB-4F57-B5C7-CB20C171B5A5}" name="uranium-238" dataDxfId="51"/>
+    <tableColumn id="24" xr3:uid="{8B59E641-D762-475E-BE04-0AD557DA2633}" name="uranium-235" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{49325880-AB22-406C-9EBF-F9714278E54F}" name="tungsten-ore" dataDxfId="49"/>
+    <tableColumn id="25" xr3:uid="{4B574229-0587-4E11-816D-60F689340097}" name="lava" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{876F7B27-7476-478B-9F55-220BB73A33D4}" name="scrap" dataDxfId="47"/>
+    <tableColumn id="14" xr3:uid="{1D9F494D-4B80-42A5-85C3-6484CB3803F7}" name="yumako-seed" dataDxfId="46"/>
+    <tableColumn id="15" xr3:uid="{CC0EBC6A-4432-4CBA-A41B-E7B6031BD83F}" name="jellynut-seed" dataDxfId="45"/>
+    <tableColumn id="16" xr3:uid="{2B7FB235-2E10-4FA1-BC7C-964E7947466A}" name="spoilage" dataDxfId="44"/>
+    <tableColumn id="17" xr3:uid="{CEE0F52B-14B0-48FB-AD2F-A1A1A9DACF76}" name="Dormant Pentapod Egg" dataDxfId="43"/>
+    <tableColumn id="18" xr3:uid="{F34385CF-1935-4968-8261-48F21ADB2D44}" name="(tbd) ammonia" dataDxfId="42"/>
+    <tableColumn id="19" xr3:uid="{405DEB99-0752-4FA5-BCC3-09F744698489}" name="(tbd) flourine" dataDxfId="41"/>
+    <tableColumn id="20" xr3:uid="{ADD7E20E-3FB5-4185-8AD9-7781DF09236F}" name="(tbd) lithium" dataDxfId="40"/>
+    <tableColumn id="21" xr3:uid="{82818854-DC1B-485E-9809-F8B0261BEDE0}" name="(tbd) promethium" dataDxfId="39"/>
+    <tableColumn id="22" xr3:uid="{5634330F-FEBB-4799-90EC-922642138192}" name="Holmium Solution" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{50716056-6DAF-4F3B-B82E-A4E69F0450D7}" name="Table5" displayName="Table5" ref="B3:H6" totalsRowShown="0">
-  <autoFilter ref="B3:H6" xr:uid="{50716056-6DAF-4F3B-B82E-A4E69F0450D7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{50716056-6DAF-4F3B-B82E-A4E69F0450D7}" name="Table5" displayName="Table5" ref="B3:H7" totalsRowShown="0">
+  <autoFilter ref="B3:H7" xr:uid="{50716056-6DAF-4F3B-B82E-A4E69F0450D7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:H6">
     <sortCondition ref="B3:B6"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{EFD8865D-C9ED-4BA8-B73C-113EDAD68DA5}" name="chunk item"/>
-    <tableColumn id="2" xr3:uid="{587148E6-4B98-4DD4-8691-6E43006C9E89}" name="type" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{587148E6-4B98-4DD4-8691-6E43006C9E89}" name="type" dataDxfId="37">
       <calculatedColumnFormula>"""item"""</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{1A67492A-77CF-48AB-9609-594DA5CCF328}" name="name"/>
-    <tableColumn id="4" xr3:uid="{4C2D2AEB-4928-4F13-91B0-2184B98F54BD}" name="subgroup" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{4C2D2AEB-4928-4F13-91B0-2184B98F54BD}" name="subgroup" dataDxfId="36">
       <calculatedColumnFormula>"""space-material"""</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{A45CDEC7-39DE-4333-8E31-011D04DA2762}" name="order"/>
     <tableColumn id="6" xr3:uid="{499C643B-C1ED-4A32-BE42-9946CC52BC6E}" name="icon"/>
-    <tableColumn id="7" xr3:uid="{834AC55A-1278-424D-94B7-2EDF700340B6}" name="stack_size" dataDxfId="5">
+    <tableColumn id="7" xr3:uid="{834AC55A-1278-424D-94B7-2EDF700340B6}" name="stack_size" dataDxfId="35">
       <calculatedColumnFormula>1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -680,18 +1085,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6D95CADF-49B1-4F25-9D20-A564B80F80A3}" name="Table57" displayName="Table57" ref="J3:O6" totalsRowShown="0">
-  <autoFilter ref="J3:O6" xr:uid="{6D95CADF-49B1-4F25-9D20-A564B80F80A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6D95CADF-49B1-4F25-9D20-A564B80F80A3}" name="Table57" displayName="Table57" ref="J3:O7" totalsRowShown="0">
+  <autoFilter ref="J3:O7" xr:uid="{6D95CADF-49B1-4F25-9D20-A564B80F80A3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J4:O6">
     <sortCondition ref="J3:J6"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9C8B2B85-651A-48F5-BE74-6B0CB5EC6401}" name="chunk"/>
-    <tableColumn id="2" xr3:uid="{36E1B303-2D0B-4894-BA0E-22315D6AA6E7}" name="type" dataDxfId="3">
+    <tableColumn id="2" xr3:uid="{36E1B303-2D0B-4894-BA0E-22315D6AA6E7}" name="type" dataDxfId="34">
       <calculatedColumnFormula>"""asteroid-chunk"""</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{5CB5E631-FE01-4CDD-A4B3-008A4C86A223}" name="name "/>
-    <tableColumn id="4" xr3:uid="{33E8079D-0ADE-49CC-8F5F-FB561D1043C6}" name="minable " dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{33E8079D-0ADE-49CC-8F5F-FB561D1043C6}" name="minable " dataDxfId="33"/>
     <tableColumn id="5" xr3:uid="{2D398BB0-41AE-40CE-AA0F-6FA6647FFA57}" name="order "/>
     <tableColumn id="6" xr3:uid="{82F86FA9-1FFF-4AFF-A528-DD559BDA3930}" name="icon "/>
   </tableColumns>
@@ -700,24 +1105,66 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{996E5AF8-4762-451C-9EC5-44266BFF352B}" name="Table7" displayName="Table7" ref="B4:N11" totalsRowShown="0">
-  <autoFilter ref="B4:N11" xr:uid="{996E5AF8-4762-451C-9EC5-44266BFF352B}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{996E5AF8-4762-451C-9EC5-44266BFF352B}" name="Table7" displayName="Table7" ref="B4:AG17" totalsRowShown="0" headerRowDxfId="32">
+  <autoFilter ref="B4:AG17" xr:uid="{996E5AF8-4762-451C-9EC5-44266BFF352B}"/>
+  <tableColumns count="32">
     <tableColumn id="1" xr3:uid="{1C7B22C3-8503-40CA-B985-0F11F98EB3C6}" name="Recipe"/>
-    <tableColumn id="12" xr3:uid="{44C30B7E-3F48-43EE-A476-EAF4BA20C75A}" name="Unwritten?"/>
-    <tableColumn id="2" xr3:uid="{E995243B-09A0-4B61-9891-2750A2869DC3}" name="name"/>
-    <tableColumn id="3" xr3:uid="{023FF608-1B67-4E31-9A33-2762CD769A59}" name="localised_name"/>
-    <tableColumn id="4" xr3:uid="{503397F1-8755-4CF0-8F78-A9F7740B5790}" name="icon"/>
-    <tableColumn id="5" xr3:uid="{68F82173-B464-4B40-AC23-3E4F9BE9F52A}" name="order"/>
-    <tableColumn id="6" xr3:uid="{41FF6C48-F0D3-46AF-A21F-51ACC01FAB0C}" name="enabled"/>
-    <tableColumn id="14" xr3:uid="{D9A98507-2FB7-4229-B1C0-4B1DA8557E9F}" name="energy_required"/>
-    <tableColumn id="7" xr3:uid="{49007205-346D-4C29-AD68-C79FA0EA720B}" name="ingredients"/>
+    <tableColumn id="12" xr3:uid="{44C30B7E-3F48-43EE-A476-EAF4BA20C75A}" name="Unwritten?" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{E995243B-09A0-4B61-9891-2750A2869DC3}" name="name" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{503397F1-8755-4CF0-8F78-A9F7740B5790}" name="icon" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{68F82173-B464-4B40-AC23-3E4F9BE9F52A}" name="order" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{41FF6C48-F0D3-46AF-A21F-51ACC01FAB0C}" name="enabled" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{D9A98507-2FB7-4229-B1C0-4B1DA8557E9F}" name="energy_required" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{49007205-346D-4C29-AD68-C79FA0EA720B}" name="Ingredient 1" dataDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{805B845F-9765-4945-826D-8F506E139BE2}" name="Ingredient 2" dataDxfId="24"/>
+    <tableColumn id="16" xr3:uid="{D892DCC1-CA40-40C6-A026-DE02CB8B8541}" name="Ingredient 1 Amount" dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{043F0671-10F0-435E-93F6-76D671AC8761}" name="Ingredient 2 Amount" dataDxfId="22"/>
+    <tableColumn id="30" xr3:uid="{36B4E4F7-052E-4455-A6CA-FFCC3E9245F7}" name="Result_1_name" dataDxfId="21"/>
+    <tableColumn id="31" xr3:uid="{EBAA7D64-5ABB-4E65-8B5B-00682D717ECF}" name="Result_2_name" dataDxfId="20"/>
+    <tableColumn id="32" xr3:uid="{9317562F-B7E9-490E-BFBC-0F03122AB5F9}" name="Result_3_name" dataDxfId="19"/>
+    <tableColumn id="33" xr3:uid="{5A6880AC-0CDF-4FF5-95A6-EF019821685D}" name="Result_4_name" dataDxfId="18"/>
+    <tableColumn id="26" xr3:uid="{F871C881-69CD-4795-AB43-8B752D2E5250}" name="Result_1_amt_max" dataDxfId="17"/>
+    <tableColumn id="27" xr3:uid="{9C3D4CEF-5F40-4B68-BD87-448388551748}" name="Result_1_amt_min" dataDxfId="16"/>
+    <tableColumn id="28" xr3:uid="{6E355266-0C10-4989-9F5C-656E5531B809}" name="Result_1_P" dataDxfId="15"/>
+    <tableColumn id="29" xr3:uid="{95845240-17DF-4258-A672-6BC4AC4F0623}" name="Result_2_amt_max" dataDxfId="14"/>
+    <tableColumn id="22" xr3:uid="{0F604324-0BE1-40EA-BC68-971D78B203CD}" name="Result_2_amt_min" dataDxfId="13"/>
+    <tableColumn id="23" xr3:uid="{F05C630D-F7F6-4014-91DB-C5753DF18CBC}" name="Result_2_P" dataDxfId="12"/>
+    <tableColumn id="24" xr3:uid="{4A76DB66-F126-4A19-B7B9-052150F5EC16}" name="Result_3_amt_max" dataDxfId="11"/>
+    <tableColumn id="25" xr3:uid="{04B02B68-0016-44BE-8B0D-6E6053EB4293}" name="Result_3_amt_min" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{1834E88C-3996-4B83-A2D6-E4CBF6799983}" name="Result_3_P" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{A869DC81-85C7-4615-8A5E-CD93FEADF931}" name="Result_4_amt_max" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{F27B8545-BFA0-4FA2-BC1B-A026F34E43F0}" name="Result_4_amt_min" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{C5FEE21E-C6E2-49F8-AD36-B9EED8A7B149}" name="Result_4_P" dataDxfId="6"/>
     <tableColumn id="8" xr3:uid="{33C291CA-AEA3-41A6-8665-03327AB3E806}" name="Results 1"/>
     <tableColumn id="9" xr3:uid="{7BF645B9-19D0-4473-ACE6-12B66A8165AE}" name="Results 2"/>
     <tableColumn id="10" xr3:uid="{73804FC8-69EB-4E05-8650-4BB574DE531D}" name="Results 3"/>
     <tableColumn id="11" xr3:uid="{6B40EA3E-9F3D-4135-BC18-3EC5AE95AEF0}" name="Results 4"/>
+    <tableColumn id="13" xr3:uid="{983E9E0D-A8BE-4A49-88C0-0F9647C154FB}" name="Ingredient String" dataDxfId="5">
+      <calculatedColumnFormula array="1" xml:space="preserve"> "{ " &amp;
+ _xlfn.TEXTJOIN(", ",
+          TRUE,
+          "{ type = ""item"", name = """ &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1]:[Ingredient 2]]) &amp; """, amount = " &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1 Amount]:[Ingredient 2 Amount]]) &amp; " }")
+&amp; " }"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FC02366-D4DD-41A4-8050-773DDA42B27E}" name="Table1" displayName="Table1" ref="H5:K15" totalsRowShown="0">
+  <autoFilter ref="H5:K15" xr:uid="{8FC02366-D4DD-41A4-8050-773DDA42B27E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{959EF51D-F84A-47B3-BB90-19C907903580}" name="name"/>
+    <tableColumn id="2" xr3:uid="{C3C91221-23BC-4002-9309-7C9CD86A66DB}" name="type" dataDxfId="4">
+      <calculatedColumnFormula>"""item"""</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{214E8F8E-48B4-4BB8-B3A1-54F2A217D484}" name="amount"/>
+    <tableColumn id="7" xr3:uid="{24D768D4-2DBF-4BCF-BF27-3E53FCF0468E}" name="line items" dataDxfId="0">
+      <calculatedColumnFormula array="1">"    { " &amp; _xlfn.TEXTJOIN(", ", TRUE, Table1[[#Headers],[name]:[amount]] &amp; " = " &amp; Table1[[#This Row],[name]:[amount]]) &amp; " }"</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1039,316 +1486,1545 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1887466F-79F7-46EC-9385-969031045057}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:Z24"/>
+  <dimension ref="B3:AI41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="26" width="10.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="2" customWidth="1"/>
+    <col min="4" max="10" width="10.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="35.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="40.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="50.42578125" style="2" customWidth="1"/>
+    <col min="15" max="17" width="43.85546875" style="2" customWidth="1"/>
+    <col min="18" max="28" width="10.42578125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:26" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:28" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="e">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="str" cm="1">
+        <f t="array" ref="J4">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K4" s="8" t="str" cm="1">
+        <f t="array" ref="K4">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="str" cm="1">
+        <f t="array" ref="N4">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="e">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="str" cm="1">
+        <f t="array" ref="J5">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K5" s="8" t="str" cm="1">
+        <f t="array" ref="K5">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8" t="str" cm="1">
+        <f t="array" ref="N5">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="C6" s="2" t="e">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="str" cm="1">
+        <f t="array" ref="J6">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K6" s="8" t="str" cm="1">
+        <f t="array" ref="K6">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8" t="str" cm="1">
+        <f t="array" ref="N6">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+    </row>
+    <row r="7" spans="2:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="2">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="str" cm="1">
+        <f t="array" ref="D7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(D$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="E7" s="8" t="str" cm="1">
+        <f t="array" ref="E7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(E$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="F7" s="8" t="str" cm="1">
+        <f t="array" ref="F7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(F$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G7" s="8" t="str" cm="1">
+        <f t="array" ref="G7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(G$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="H7" s="8" t="str" cm="1">
+        <f t="array" ref="H7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(H$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="I7" s="8" t="str" cm="1">
+        <f t="array" ref="I7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(I$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J7" s="8" t="str" cm="1">
+        <f t="array" ref="J7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K7" s="8" t="str" cm="1">
+        <f t="array" ref="K7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v>{ type = "item", name = "solid-fuel", amount_min = 5, amount_max = 15 }</v>
+      </c>
+      <c r="L7" s="9" t="str" cm="1">
+        <f t="array" ref="L7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(L$3, _xlpm.recipeResults))), " - ") )</f>
+        <v>{ type = "item", name = "coal", amount_min = 5, amount_max = 15  }</v>
+      </c>
+      <c r="M7" s="8" t="str" cm="1">
+        <f t="array" ref="M7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(M$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="N7" s="8" t="str" cm="1">
+        <f t="array" ref="N7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O7" s="8" t="str" cm="1">
+        <f t="array" ref="O7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(O$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="P7" s="8" t="str" cm="1">
+        <f t="array" ref="P7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(P$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="Q7" s="8" t="str" cm="1">
+        <f t="array" ref="Q7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(Q$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="R7" s="8" t="str" cm="1">
+        <f t="array" ref="R7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(R$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="S7" s="8" t="str" cm="1">
+        <f t="array" ref="S7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(S$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="T7" s="8" t="str" cm="1">
+        <f t="array" ref="T7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(T$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="U7" s="8" t="str" cm="1">
+        <f t="array" ref="U7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(U$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="V7" s="8" t="str" cm="1">
+        <f t="array" ref="V7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(V$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="W7" s="8" t="str" cm="1">
+        <f t="array" ref="W7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(W$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="X7" s="8" t="str" cm="1">
+        <f t="array" ref="X7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(X$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="Y7" s="8" t="str" cm="1">
+        <f t="array" ref="Y7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(Y$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="Z7" s="8" t="str" cm="1">
+        <f t="array" ref="Z7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(Z$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="AA7" s="8" t="str" cm="1">
+        <f t="array" ref="AA7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(AA$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="AB7" s="8" t="str" cm="1">
+        <f t="array" ref="AB7">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(AB$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8" t="str" cm="1">
+        <f t="array" ref="J8">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K8" s="8" t="str" cm="1">
+        <f t="array" ref="K8">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="8" t="str" cm="1">
+        <f t="array" ref="N8">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="e">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="str" cm="1">
+        <f t="array" ref="J9">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K9" s="8" t="str" cm="1">
+        <f t="array" ref="K9">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="8" t="str" cm="1">
+        <f t="array" ref="N9">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="e">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8" t="str" cm="1">
+        <f t="array" ref="J10">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K10" s="8" t="str" cm="1">
+        <f t="array" ref="K10">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8" t="str" cm="1">
+        <f t="array" ref="N10">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="e">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8" t="str" cm="1">
+        <f t="array" ref="J11">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K11" s="8" t="str" cm="1">
+        <f t="array" ref="K11">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="8" t="str" cm="1">
+        <f t="array" ref="N11">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="e">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="str" cm="1">
+        <f t="array" ref="J12">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K12" s="8" t="str" cm="1">
+        <f t="array" ref="K12">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8" t="str" cm="1">
+        <f t="array" ref="N12">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="e">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="str" cm="1">
+        <f t="array" ref="J13">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K13" s="8" t="str" cm="1">
+        <f t="array" ref="K13">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="str" cm="1">
+        <f t="array" ref="N13">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="8"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="e">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="str" cm="1">
+        <f t="array" ref="J14">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K14" s="8" t="str" cm="1">
+        <f t="array" ref="K14">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8" t="str" cm="1">
+        <f t="array" ref="N14">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="e">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="str" cm="1">
+        <f t="array" ref="J15">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K15" s="8" t="str" cm="1">
+        <f t="array" ref="K15">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8" t="str" cm="1">
+        <f t="array" ref="N15">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="e">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="8" t="str" cm="1">
+        <f t="array" ref="J16">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K16" s="8" t="str" cm="1">
+        <f t="array" ref="K16">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8" t="str" cm="1">
+        <f t="array" ref="N16">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+    </row>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>5</v>
+      </c>
+      <c r="D17" s="8" t="str" cm="1">
+        <f t="array" ref="D17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(D$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="E17" s="8" t="str" cm="1">
+        <f t="array" ref="E17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(E$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="F17" s="8" t="str" cm="1">
+        <f t="array" ref="F17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(F$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G17" s="8" t="str" cm="1">
+        <f t="array" ref="G17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(G$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="H17" s="8" t="str" cm="1">
+        <f t="array" ref="H17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(H$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="I17" s="8" t="str" cm="1">
+        <f t="array" ref="I17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(I$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J17" s="8" t="str" cm="1">
+        <f t="array" ref="J17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K17" s="8" t="str" cm="1">
+        <f t="array" ref="K17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L17" s="8" t="str" cm="1">
+        <f t="array" ref="L17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(L$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="M17" s="8" t="str" cm="1">
+        <f t="array" ref="M17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(M$3, _xlpm.recipeResults))), " - ") )</f>
+        <v>{ type = "item", name = "stone", amount_min = 4, amount_max = 8 }</v>
+      </c>
+      <c r="N17" s="8" t="str" cm="1">
+        <f t="array" ref="N17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v>{ type = "item", name = "uranium-ore", amount_min = 0, amount_max = 4, probability = 0.25}</v>
+      </c>
+      <c r="O17" s="8" t="str" cm="1">
+        <f t="array" ref="O17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(O$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="P17" s="8" t="str" cm="1">
+        <f t="array" ref="P17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(P$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="Q17" s="8" t="str" cm="1">
+        <f t="array" ref="Q17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(Q$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="R17" s="8" t="str" cm="1">
+        <f t="array" ref="R17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(R$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="S17" s="8" t="str" cm="1">
+        <f t="array" ref="S17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(S$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="T17" s="8" t="str" cm="1">
+        <f t="array" ref="T17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(T$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="U17" s="8" t="str" cm="1">
+        <f t="array" ref="U17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(U$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="V17" s="8" t="str" cm="1">
+        <f t="array" ref="V17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(V$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="W17" s="8" t="str" cm="1">
+        <f t="array" ref="W17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(W$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="X17" s="8" t="str" cm="1">
+        <f t="array" ref="X17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(X$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="Y17" s="8" t="str" cm="1">
+        <f t="array" ref="Y17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(Y$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="Z17" s="8" t="str" cm="1">
+        <f t="array" ref="Z17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(Z$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="AA17" s="8" t="str" cm="1">
+        <f t="array" ref="AA17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(AA$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="AB17" s="8" t="str" cm="1">
+        <f t="array" ref="AB17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(AB$3, _xlpm.recipeResults)), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="AE17" t="str" cm="1">
+        <f t="array" ref="AE17:AH17">_xlfn._xlws.FILTER( _xlfn._xlws.FILTER(Table7[], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+         ISNUMBER(SEARCH("Results", Table7[#Headers])) )</f>
+        <v>{ type = "item", name = "stone", amount_min = 4, amount_max = 8 }</v>
+      </c>
+      <c r="AF17" t="str">
+        <v>{ type = "item", name = "uranium-ore", amount_min = 0, amount_max = 4, probability = 0.25}</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="str" cm="1">
+        <f t="array" ref="AI17">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(Table4[[#Headers],[stone]], _xlpm.recipeResults))) )</f>
+        <v>{ type = "item", name = "stone", amount_min = 4, amount_max = 8 }</v>
+      </c>
+    </row>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="e">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8" t="str" cm="1">
+        <f t="array" ref="J18">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K18" s="8" t="str" cm="1">
+        <f t="array" ref="K18">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8" t="str" cm="1">
+        <f t="array" ref="N18">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+    </row>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="e">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8" t="str" cm="1">
+        <f t="array" ref="J19">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K19" s="8" t="str" cm="1">
+        <f t="array" ref="K19">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8" t="str" cm="1">
+        <f t="array" ref="N19">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+    </row>
+    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="e">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8" t="str" cm="1">
+        <f t="array" ref="J20">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K20" s="8" t="str" cm="1">
+        <f t="array" ref="K20">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8" t="str" cm="1">
+        <f t="array" ref="N20">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+    </row>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="e">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8" t="str" cm="1">
+        <f t="array" ref="J21">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K21" s="8" t="str" cm="1">
+        <f t="array" ref="K21">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8" t="str" cm="1">
+        <f t="array" ref="N21">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+    </row>
+    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="e">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8" t="str" cm="1">
+        <f t="array" ref="J22">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K22" s="8" t="str" cm="1">
+        <f t="array" ref="K22">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8" t="str" cm="1">
+        <f t="array" ref="N22">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+    </row>
+    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2" t="e">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8" t="str" cm="1">
+        <f t="array" ref="J23">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K23" s="8" t="str" cm="1">
+        <f t="array" ref="K23">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8" t="str" cm="1">
+        <f t="array" ref="N23">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2" t="e">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8" t="str" cm="1">
+        <f t="array" ref="J24">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K24" s="8" t="str" cm="1">
+        <f t="array" ref="K24">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8" t="str" cm="1">
+        <f t="array" ref="N24">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AE24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C25" s="2" t="e">
+        <f>INDEX(Table7[energy_required], MATCH(Table4[[#This Row],[Recipe]], Table7[Recipe], 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8" t="str" cm="1">
+        <f t="array" ref="J25">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(J$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="K25" s="8" t="str" cm="1">
+        <f t="array" ref="K25">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(K$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8" t="str" cm="1">
+        <f t="array" ref="N25">_xlfn.LET(_xlpm.recipeResults, _xlfn._xlws.FILTER(Table7[[Results 1]:[Results 4]], Table7[Recipe] = Table4[[#This Row],[Recipe]]),
+     IFERROR(
+     _xlfn._xlws.FILTER(_xlpm.recipeResults, ISNUMBER(SEARCH(N$3, _xlpm.recipeResults))), " - ") )</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AE26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="L28" s="2" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(SUBSTITUTE(L7, "}", ","), "amount_max = "), ",", , , , 0)</f>
+        <v xml:space="preserve">15  </v>
+      </c>
+      <c r="AE28" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="L29" s="2" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(SUBSTITUTE(L7, "}", ","), "amount_min = "), ",", , , , 0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="L30" s="2" t="e">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(SUBSTITUTE(L7, "}", ","), "amount = "), ",", , , , 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="L31" s="2" t="e">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(SUBSTITUTE(L7, "}", ","), "probability = "), ",", , , , 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N38" s="2" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(SUBSTITUTE(N17, "}", ","), "amount_max = "), ",", , , , 0)</f>
         <v>4</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>44</v>
+    </row>
+    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N39" s="2" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(SUBSTITUTE(N17, "}", ","), "amount_min = "), ",", , , , 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N40" s="2" t="e">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(SUBSTITUTE(N17, "}", ","), "amount = "), ",", , , , 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N41" s="2" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(SUBSTITUTE(N17, "}", ","), "probability = "), ",", , , , 0)</f>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B17:AB17">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1361,8 +3037,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,176 +3063,223 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" t="s">
-        <v>67</v>
-      </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C4" t="str">
         <f>"""item"""</f>
         <v>"item"</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E4" t="str">
         <f>"""space-material"""</f>
         <v>"space-material"</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="K4" t="str">
         <f>"""asteroid-chunk"""</f>
         <v>"asteroid-chunk"</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="7" t="str">
+        <v>50</v>
+      </c>
+      <c r="C5" t="str">
         <f>"""item"""</f>
         <v>"item"</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="7" t="str">
+        <v>56</v>
+      </c>
+      <c r="E5" t="str">
         <f>"""space-material"""</f>
         <v>"space-material"</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="7" t="str">
+        <v>50</v>
+      </c>
+      <c r="K5" t="str">
         <f>"""asteroid-chunk"""</f>
         <v>"asteroid-chunk"</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>71</v>
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C6" t="str">
         <f>"""item"""</f>
         <v>"item"</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E6" t="str">
         <f>"""space-material"""</f>
         <v>"space-material"</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="7" t="str">
+        <v>36</v>
+      </c>
+      <c r="K6" t="str">
         <f>"""asteroid-chunk"""</f>
         <v>"asteroid-chunk"</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="M6" t="s">
+        <v>106</v>
+      </c>
       <c r="N6" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="str">
+        <f>"""item"""</f>
+        <v>"item"</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="str">
+        <f>"""space-material"""</f>
+        <v>"space-material"</v>
+      </c>
+      <c r="F7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" t="str">
+        <f>"""asteroid-chunk"""</f>
+        <v>"asteroid-chunk"</v>
+      </c>
+      <c r="L7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
@@ -1586,269 +3309,760 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA672A5-FC41-4490-AF8C-1F6ADD4F213B}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:N10"/>
+  <dimension ref="B2:AJ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.85546875" customWidth="1"/>
-    <col min="6" max="6" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="64.28515625" customWidth="1"/>
-    <col min="11" max="11" width="60" customWidth="1"/>
-    <col min="12" max="12" width="82.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="62.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="66.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="11.140625" style="2" customWidth="1"/>
+    <col min="9" max="12" width="35.140625" style="2" customWidth="1"/>
+    <col min="13" max="28" width="9.42578125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="82.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="62.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="118.85546875" customWidth="1"/>
+    <col min="36" max="36" width="64" customWidth="1"/>
+    <col min="37" max="37" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J2" t="s">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="I2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG5" t="str" cm="1">
+        <f t="array" ref="AG5" xml:space="preserve"> "{ " &amp;
+ _xlfn.TEXTJOIN(", ",
+          TRUE,
+          "{ type = ""item"", name = """ &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1]:[Ingredient 2]]) &amp; """, amount = " &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1 Amount]:[Ingredient 2 Amount]]) &amp; " }")
+&amp; " }"</f>
+        <v>{ { type = "item", name = "nauvis_asteroid_chunk_item", amount = 1 } }</v>
+      </c>
+      <c r="AJ5" t="str" cm="1">
+        <f t="array" ref="AJ5" xml:space="preserve"> "{ " &amp;
+ _xlfn.TEXTJOIN(", ",
+          TRUE,
+          "{ type = ""item"", name = """ &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1]:[Ingredient 2]]) &amp; """, amount = " &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1 Amount]:[Ingredient 2 Amount]]) &amp; " }")
+&amp; " }"</f>
+        <v>{ { type = "item", name = "nauvis_asteroid_chunk_item", amount = 1 } }</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG6" t="e" cm="1">
+        <f t="array" ref="AG6" xml:space="preserve"> "{ " &amp;
+ _xlfn.TEXTJOIN(", ",
+          TRUE,
+          "{ type = ""item"", name = """ &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1]:[Ingredient 2]]) &amp; """, amount = " &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1 Amount]:[Ingredient 2 Amount]]) &amp; " }")
+&amp; " }"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="e" cm="1">
+        <f t="array" ref="AG7" xml:space="preserve"> "{ " &amp;
+ _xlfn.TEXTJOIN(", ",
+          TRUE,
+          "{ type = ""item"", name = """ &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1]:[Ingredient 2]]) &amp; """, amount = " &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1 Amount]:[Ingredient 2 Amount]]) &amp; " }")
+&amp; " }"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG8" t="e" cm="1">
+        <f t="array" ref="AG8" xml:space="preserve"> "{ " &amp;
+ _xlfn.TEXTJOIN(", ",
+          TRUE,
+          "{ type = ""item"", name = """ &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1]:[Ingredient 2]]) &amp; """, amount = " &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1 Amount]:[Ingredient 2 Amount]]) &amp; " }")
+&amp; " }"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG9" t="e" cm="1">
+        <f t="array" ref="AG9" xml:space="preserve"> "{ " &amp;
+ _xlfn.TEXTJOIN(", ",
+          TRUE,
+          "{ type = ""item"", name = """ &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1]:[Ingredient 2]]) &amp; """, amount = " &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1 Amount]:[Ingredient 2 Amount]]) &amp; " }")
+&amp; " }"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="E10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M4" t="s">
-        <v>88</v>
-      </c>
-      <c r="N4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5">
+      <c r="G10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="2">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="I10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG10" t="e" cm="1">
+        <f t="array" ref="AG10" xml:space="preserve"> "{ " &amp;
+ _xlfn.TEXTJOIN(", ",
+          TRUE,
+          "{ type = ""item"", name = """ &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1]:[Ingredient 2]]) &amp; """, amount = " &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1 Amount]:[Ingredient 2 Amount]]) &amp; " }")
+&amp; " }"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6">
+      <c r="J11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG11" t="str" cm="1">
+        <f t="array" ref="AG11" xml:space="preserve"> "{ " &amp;
+ _xlfn.TEXTJOIN(", ",
+          TRUE,
+          "{ type = ""item"", name = """ &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1]:[Ingredient 2]]) &amp; """, amount = " &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1 Amount]:[Ingredient 2 Amount]]) &amp; " }")
+&amp; " }"</f>
+        <v>{ { type = "item", name = "vulcanic_asteroid_chunk_item", amount = 1 }, { type = "item", name = "metallic-astroid-chunk", amount = 1 } }</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG12" t="str" cm="1">
+        <f t="array" ref="AG12" xml:space="preserve"> "{ " &amp;
+ _xlfn.TEXTJOIN(", ",
+          TRUE,
+          "{ type = ""item"", name = """ &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1]:[Ingredient 2]]) &amp; """, amount = " &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1 Amount]:[Ingredient 2 Amount]]) &amp; " }")
+&amp; " }"</f>
+        <v>{ { type = "item", name = "metallic-astroid-chunk", amount = 1 } }</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="str" cm="1">
+        <f t="array" ref="AG13" xml:space="preserve"> "{ " &amp;
+ _xlfn.TEXTJOIN(", ",
+          TRUE,
+          "{ type = ""item"", name = """ &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1]:[Ingredient 2]]) &amp; """, amount = " &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1 Amount]:[Ingredient 2 Amount]]) &amp; " }")
+&amp; " }"</f>
+        <v>{ { type = "item", name = "carbonic-asteroid-chunk", amount = 1 } }</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q14" s="2">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
-        <v>112</v>
-      </c>
-      <c r="K6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="R14" s="2">
+        <v>5</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1</v>
+      </c>
+      <c r="T14" s="2">
+        <v>1</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AG14" t="str" cm="1">
+        <f t="array" ref="AG14" xml:space="preserve"> "{ " &amp;
+ _xlfn.TEXTJOIN(", ",
+          TRUE,
+          "{ type = ""item"", name = """ &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1]:[Ingredient 2]]) &amp; """, amount = " &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1 Amount]:[Ingredient 2 Amount]]) &amp; " }")
+&amp; " }"</f>
+        <v>{ { type = "item", name = "oxide-asteroid-chunk", amount = 1 } }</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="K7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="N15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K8" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" t="s">
-        <v>121</v>
-      </c>
-      <c r="L10" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" t="s">
-        <v>123</v>
-      </c>
-      <c r="N10" t="s">
-        <v>124</v>
+      <c r="O15" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>10</v>
+      </c>
+      <c r="R15" s="2">
+        <v>10</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1</v>
+      </c>
+      <c r="T15" s="2">
+        <v>4</v>
+      </c>
+      <c r="U15" s="2">
+        <v>4</v>
+      </c>
+      <c r="V15" s="2">
+        <v>1</v>
+      </c>
+      <c r="W15" s="2">
+        <v>1</v>
+      </c>
+      <c r="X15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AG15" t="str" cm="1">
+        <f t="array" ref="AG15" xml:space="preserve"> "{ " &amp;
+ _xlfn.TEXTJOIN(", ",
+          TRUE,
+          "{ type = ""item"", name = """ &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1]:[Ingredient 2]]) &amp; """, amount = " &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1 Amount]:[Ingredient 2 Amount]]) &amp; " }")
+&amp; " }"</f>
+        <v>{ { type = "item", name = "metallic-astroid-chunk", amount = 1 } }</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG16" t="str" cm="1">
+        <f t="array" ref="AG16" xml:space="preserve"> "{ " &amp;
+ _xlfn.TEXTJOIN(", ",
+          TRUE,
+          "{ type = ""item"", name = """ &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1]:[Ingredient 2]]) &amp; """, amount = " &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1 Amount]:[Ingredient 2 Amount]]) &amp; " }")
+&amp; " }"</f>
+        <v>{ { type = "item", name = "carbonic-asteroid-chunk", amount = 1 } }</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG17" t="str" cm="1">
+        <f t="array" ref="AG17" xml:space="preserve"> "{ " &amp;
+ _xlfn.TEXTJOIN(", ",
+          TRUE,
+          "{ type = ""item"", name = """ &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1]:[Ingredient 2]]) &amp; """, amount = " &amp; _xlfn.TRIMRANGE(Table7[[#This Row],[Ingredient 1 Amount]:[Ingredient 2 Amount]]) &amp; " }")
+&amp; " }"</f>
+        <v>{ { type = "item", name = "oxide-asteroid-chunk", amount = 1 } }</v>
+      </c>
+    </row>
+    <row r="34" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD49" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AD38:AD49">
+    <sortCondition ref="AD38:AD49"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B5:N11">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="B5:AF17">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>LEN($C5) &gt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:AG14">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1856,4 +4070,358 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A8318C-CA68-4EB8-AA36-1FC23F5E77D3}">
+  <dimension ref="B2:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K2" t="str">
+        <f>"{ 
+" &amp;
+_xlfn.TEXTJOIN(", 
+", TRUE, Table1[line items])
+&amp; "
+}"</f>
+        <v>{ 
+    { name = "space-platform-foundation", type = "item", amount = 500 }, 
+    { name = "solar-panel", type = "item", amount = 20 }, 
+    { name = "astra-simple-crusher", type = "item", amount = 4 }, 
+    { name = "astra-simple-asteroid-collector", type = "item", amount = 6 }, 
+    { name = "inserter", type = "item", amount = 6 }, 
+    { name = "electric-furnace", type = "item", amount = 8 }, 
+    { name = "assembling-machine-1", type = "item", amount = 2 }, 
+    { name = "iron-plate", type = "item", amount = 50 }, 
+    { name = "efficiency-module-2", type = "item", amount = 6 }, 
+    { name = "transport-belt", type = "item", amount = 40 }
+}</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I15" si="0">"""item"""</f>
+        <v>"item"</v>
+      </c>
+      <c r="J6">
+        <v>500</v>
+      </c>
+      <c r="K6" t="str" cm="1">
+        <f t="array" ref="K6">"    { " &amp; _xlfn.TEXTJOIN(", ", TRUE, Table1[[#Headers],[name]:[amount]] &amp; " = " &amp; Table1[[#This Row],[name]:[amount]]) &amp; " }"</f>
+        <v xml:space="preserve">    { name = "space-platform-foundation", type = "item", amount = 500 }</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>"item"</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="K7" t="str" cm="1">
+        <f t="array" ref="K7">"    { " &amp; _xlfn.TEXTJOIN(", ", TRUE, Table1[[#Headers],[name]:[amount]] &amp; " = " &amp; Table1[[#This Row],[name]:[amount]]) &amp; " }"</f>
+        <v xml:space="preserve">    { name = "solar-panel", type = "item", amount = 20 }</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" t="s">
+        <v>197</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>"item"</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" t="str" cm="1">
+        <f t="array" ref="K8">"    { " &amp; _xlfn.TEXTJOIN(", ", TRUE, Table1[[#Headers],[name]:[amount]] &amp; " = " &amp; Table1[[#This Row],[name]:[amount]]) &amp; " }"</f>
+        <v xml:space="preserve">    { name = "astra-simple-crusher", type = "item", amount = 4 }</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" t="s">
+        <v>198</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>"item"</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9" t="str" cm="1">
+        <f t="array" ref="K9">"    { " &amp; _xlfn.TEXTJOIN(", ", TRUE, Table1[[#Headers],[name]:[amount]] &amp; " = " &amp; Table1[[#This Row],[name]:[amount]]) &amp; " }"</f>
+        <v xml:space="preserve">    { name = "astra-simple-asteroid-collector", type = "item", amount = 6 }</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>"item"</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10" t="str" cm="1">
+        <f t="array" ref="K10">"    { " &amp; _xlfn.TEXTJOIN(", ", TRUE, Table1[[#Headers],[name]:[amount]] &amp; " = " &amp; Table1[[#This Row],[name]:[amount]]) &amp; " }"</f>
+        <v xml:space="preserve">    { name = "inserter", type = "item", amount = 6 }</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>"item"</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11" t="str" cm="1">
+        <f t="array" ref="K11">"    { " &amp; _xlfn.TEXTJOIN(", ", TRUE, Table1[[#Headers],[name]:[amount]] &amp; " = " &amp; Table1[[#This Row],[name]:[amount]]) &amp; " }"</f>
+        <v xml:space="preserve">    { name = "electric-furnace", type = "item", amount = 8 }</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" t="s">
+        <v>201</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>"item"</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="str" cm="1">
+        <f t="array" ref="K12">"    { " &amp; _xlfn.TEXTJOIN(", ", TRUE, Table1[[#Headers],[name]:[amount]] &amp; " = " &amp; Table1[[#This Row],[name]:[amount]]) &amp; " }"</f>
+        <v xml:space="preserve">    { name = "assembling-machine-1", type = "item", amount = 2 }</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" t="s">
+        <v>202</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>"item"</v>
+      </c>
+      <c r="J13">
+        <v>50</v>
+      </c>
+      <c r="K13" t="str" cm="1">
+        <f t="array" ref="K13">"    { " &amp; _xlfn.TEXTJOIN(", ", TRUE, Table1[[#Headers],[name]:[amount]] &amp; " = " &amp; Table1[[#This Row],[name]:[amount]]) &amp; " }"</f>
+        <v xml:space="preserve">    { name = "iron-plate", type = "item", amount = 50 }</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>"item"</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14" t="str" cm="1">
+        <f t="array" ref="K14">"    { " &amp; _xlfn.TEXTJOIN(", ", TRUE, Table1[[#Headers],[name]:[amount]] &amp; " = " &amp; Table1[[#This Row],[name]:[amount]]) &amp; " }"</f>
+        <v xml:space="preserve">    { name = "efficiency-module-2", type = "item", amount = 6 }</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" t="s">
+        <v>204</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>"item"</v>
+      </c>
+      <c r="J15">
+        <v>40</v>
+      </c>
+      <c r="K15" t="str" cm="1">
+        <f t="array" ref="K15">"    { " &amp; _xlfn.TEXTJOIN(", ", TRUE, Table1[[#Headers],[name]:[amount]] &amp; " = " &amp; Table1[[#This Row],[name]:[amount]]) &amp; " }"</f>
+        <v xml:space="preserve">    { name = "transport-belt", type = "item", amount = 40 }</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>